--- a/csv/food_example_honki.xlsx
+++ b/csv/food_example_honki.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\2018_procon_wellness\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC1B0F6F-5079-4D02-9D96-4A3ABA25038A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EEA4E29-2AD8-4FB2-A45C-ED58129EA286}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9492" xr2:uid="{F415E8A8-E7AD-496B-BDBD-1337C513D896}"/>
   </bookViews>
@@ -30,16 +30,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="59">
   <si>
     <t>ステーキ</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>a</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>カレーライス</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -49,10 +45,6 @@
   </si>
   <si>
     <t>ラーメン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ミートスパゲッティ</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -96,10 +88,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>シーザーサラダ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>あんぱん</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -174,6 +162,118 @@
   <si>
     <t>ピーマン</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>steak.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>curry.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>omelette_rice.png</t>
+  </si>
+  <si>
+    <t>ramen.png</t>
+  </si>
+  <si>
+    <t>pasta.png</t>
+  </si>
+  <si>
+    <t>パスタ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>breakfast1.png</t>
+  </si>
+  <si>
+    <t>bento.png</t>
+  </si>
+  <si>
+    <t>baked_cake.png</t>
+  </si>
+  <si>
+    <t>potato_chips.png</t>
+  </si>
+  <si>
+    <t>takoyaki.png</t>
+  </si>
+  <si>
+    <t>chocolate.png</t>
+  </si>
+  <si>
+    <t>short_cake.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>breakfast2.png</t>
+  </si>
+  <si>
+    <t>ポテトサラダ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>anpan.png</t>
+  </si>
+  <si>
+    <t>onigiri.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>potato_sald.png</t>
+  </si>
+  <si>
+    <t>apple.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dumpling.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sandwich.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sushi.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>potato.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>onion.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>lotus_root.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Crackers.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cabbage.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>carrot.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>orange.png</t>
+  </si>
+  <si>
+    <t>eggplant.png</t>
+  </si>
+  <si>
+    <t>broccoli.png</t>
+  </si>
+  <si>
+    <t>green_pepper.png</t>
   </si>
 </sst>
 </file>
@@ -539,15 +639,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{447ADB1A-9369-4866-8123-4E0584864A3E}">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection sqref="A1:E30"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="7.5" customWidth="1"/>
     <col min="3" max="3" width="5.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.69921875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="3.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -562,7 +662,7 @@
         <v>1000</v>
       </c>
       <c r="D1" t="s">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="E1">
         <f>COUNTIF(A1:A30,1)</f>
@@ -574,13 +674,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <v>800</v>
       </c>
       <c r="D2" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="E2">
         <f>COUNTIF(A1:A30,2)</f>
@@ -592,13 +692,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3">
         <v>750</v>
       </c>
       <c r="D3" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="E3">
         <f>COUNTIF(A1:A30,3)</f>
@@ -610,13 +710,13 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4">
         <v>700</v>
       </c>
       <c r="D4" t="s">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -627,13 +727,13 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="C5">
         <v>680</v>
       </c>
       <c r="D5" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -644,13 +744,13 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C6">
         <v>650</v>
       </c>
       <c r="D6" t="s">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -661,13 +761,13 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C7">
         <v>600</v>
       </c>
       <c r="D7" t="s">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -678,13 +778,13 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C8">
         <v>550</v>
       </c>
       <c r="D8" t="s">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -695,13 +795,13 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C9">
         <v>500</v>
       </c>
       <c r="D9" t="s">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -712,13 +812,13 @@
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C10">
         <v>450</v>
       </c>
       <c r="D10" t="s">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -729,13 +829,13 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C11">
         <v>400</v>
       </c>
       <c r="D11" t="s">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -746,13 +846,13 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C12">
         <v>350</v>
       </c>
       <c r="D12" t="s">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -763,13 +863,13 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C13">
         <v>320</v>
       </c>
       <c r="D13" t="s">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -780,13 +880,13 @@
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C14">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="D14" t="s">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -797,13 +897,13 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C15">
-        <v>260</v>
+        <v>180</v>
       </c>
       <c r="D15" t="s">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -814,13 +914,13 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="C16">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="D16" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -831,13 +931,13 @@
         <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C17">
         <v>150</v>
       </c>
       <c r="D17" t="s">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -848,13 +948,13 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C18">
         <v>140</v>
       </c>
       <c r="D18" t="s">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -865,13 +965,13 @@
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C19">
         <v>120</v>
       </c>
       <c r="D19" t="s">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -882,13 +982,13 @@
         <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C20">
         <v>100</v>
       </c>
       <c r="D20" t="s">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -899,13 +999,13 @@
         <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C21">
         <v>80</v>
       </c>
       <c r="D21" t="s">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -916,13 +1016,13 @@
         <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C22">
         <v>70</v>
       </c>
       <c r="D22" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -933,13 +1033,13 @@
         <v>3</v>
       </c>
       <c r="B23" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C23">
         <v>60</v>
       </c>
       <c r="D23" t="s">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -950,13 +1050,13 @@
         <v>3</v>
       </c>
       <c r="B24" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C24">
         <v>50</v>
       </c>
       <c r="D24" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -967,13 +1067,13 @@
         <v>3</v>
       </c>
       <c r="B25" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C25">
         <v>40</v>
       </c>
       <c r="D25" t="s">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -984,13 +1084,13 @@
         <v>3</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C26">
         <v>30</v>
       </c>
       <c r="D26" t="s">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1001,13 +1101,13 @@
         <v>3</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C27">
         <v>20</v>
       </c>
       <c r="D27" t="s">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1018,13 +1118,13 @@
         <v>3</v>
       </c>
       <c r="B28" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C28">
         <v>18</v>
       </c>
       <c r="D28" t="s">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1035,13 +1135,13 @@
         <v>3</v>
       </c>
       <c r="B29" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C29">
         <v>15</v>
       </c>
       <c r="D29" t="s">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1052,13 +1152,13 @@
         <v>3</v>
       </c>
       <c r="B30" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C30">
         <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="E30">
         <v>0</v>
